--- a/Temp/b1/TestDataDB/TestData.xlsx
+++ b/Temp/b1/TestDataDB/TestData.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,8 +491,12 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
